--- a/client/assets/file/export/inventory.xlsx
+++ b/client/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -37,21 +37,6 @@
   </si>
   <si>
     <t>Quantity</t>
-  </si>
-  <si>
-    <t>OKT_OK_2542_D1</t>
-  </si>
-  <si>
-    <t>768189916160</t>
-  </si>
-  <si>
-    <t>Intadat Warehouse</t>
-  </si>
-  <si>
-    <t>BC278</t>
-  </si>
-  <si>
-    <t>BC299</t>
   </si>
 </sst>
 </file>
@@ -402,7 +387,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -410,10 +395,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12.568359" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
@@ -440,52 +425,6 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>27003</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>27003</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/client/assets/file/export/inventory.xlsx
+++ b/client/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -37,6 +37,21 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>BODYBOSS</t>
+  </si>
+  <si>
+    <t>PKG2-GREEN</t>
+  </si>
+  <si>
+    <t>PLDS-9852</t>
+  </si>
+  <si>
+    <t>P1-01-2</t>
+  </si>
+  <si>
+    <t>WHSU2109701-6/6/2018</t>
   </si>
 </sst>
 </file>
@@ -387,7 +402,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -395,12 +410,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="4.855957" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="12.568359" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="24.708252" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -425,6 +440,27 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>640</v>
       </c>
     </row>
   </sheetData>

--- a/client/assets/file/export/inventory.xlsx
+++ b/client/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -39,19 +39,22 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>BODYBOSS</t>
-  </si>
-  <si>
-    <t>PKG2-GREEN</t>
-  </si>
-  <si>
-    <t>PLDS-9852</t>
-  </si>
-  <si>
-    <t>P1-01-2</t>
-  </si>
-  <si>
-    <t>WHSU2109701-6/6/2018</t>
+    <t>C-0000-XL</t>
+  </si>
+  <si>
+    <t>C0000XL</t>
+  </si>
+  <si>
+    <t>Intadat Warehouse</t>
+  </si>
+  <si>
+    <t>10001A</t>
+  </si>
+  <si>
+    <t>C-0000-S</t>
+  </si>
+  <si>
+    <t>C0000S</t>
   </si>
 </sst>
 </file>
@@ -402,7 +405,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -410,12 +413,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="4.855957" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12.568359" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="24.708252" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -446,9 +449,11 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -456,11 +461,51 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2"/>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="G2">
-        <v>640</v>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>111</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/client/assets/file/export/inventory.xlsx
+++ b/client/assets/file/export/inventory.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
-  <si>
-    <t>Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+  <si>
+    <t>名称</t>
   </si>
   <si>
     <t>UPC</t>
@@ -27,34 +27,16 @@
     <t>SKU</t>
   </si>
   <si>
-    <t>Warehouse</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Batch</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>C-0000-XL</t>
-  </si>
-  <si>
-    <t>C0000XL</t>
-  </si>
-  <si>
-    <t>Intadat Warehouse</t>
-  </si>
-  <si>
-    <t>10001A</t>
-  </si>
-  <si>
-    <t>C-0000-S</t>
-  </si>
-  <si>
-    <t>C0000S</t>
+    <t>仓库</t>
+  </si>
+  <si>
+    <t>库位</t>
+  </si>
+  <si>
+    <t>批次</t>
+  </si>
+  <si>
+    <t>数量</t>
   </si>
 </sst>
 </file>
@@ -405,7 +387,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -413,13 +395,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="3.570557" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="3.570557" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="3.570557" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="3.570557" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="3.570557" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -443,69 +425,6 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>111</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4">
-        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/client/assets/file/export/inventory.xlsx
+++ b/client/assets/file/export/inventory.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
-    <t>名称</t>
+    <t>Name</t>
   </si>
   <si>
     <t>UPC</t>
@@ -27,16 +27,16 @@
     <t>SKU</t>
   </si>
   <si>
-    <t>仓库</t>
-  </si>
-  <si>
-    <t>库位</t>
-  </si>
-  <si>
-    <t>批次</t>
-  </si>
-  <si>
-    <t>数量</t>
+    <t>Warehouse</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>Quantity</t>
   </si>
 </sst>
 </file>
@@ -395,13 +395,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3.570557" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="6.28418" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="4.855957" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="4.855957" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="3.570557" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="3.570557" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="3.570557" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="3.570557" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12.568359" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/client/assets/file/export/inventory.xlsx
+++ b/client/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>23D7WB</t>
+  </si>
+  <si>
+    <t>HuaLongUSA Main</t>
+  </si>
+  <si>
+    <t>A0</t>
   </si>
 </sst>
 </file>
@@ -387,7 +396,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -395,10 +404,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.28418" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="4.855957" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="4.855957" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12.568359" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
@@ -425,6 +434,27 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/client/assets/file/export/inventory.xlsx
+++ b/client/assets/file/export/inventory.xlsx
@@ -454,7 +454,7 @@
       </c>
       <c r="F2"/>
       <c r="G2">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/client/assets/file/export/inventory.xlsx
+++ b/client/assets/file/export/inventory.xlsx
@@ -39,13 +39,13 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>23D7WB</t>
+    <t>zyu1000</t>
   </si>
   <si>
     <t>HuaLongUSA Main</t>
   </si>
   <si>
-    <t>A0</t>
+    <t>A1000</t>
   </si>
 </sst>
 </file>
@@ -404,9 +404,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="4.855957" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
@@ -437,14 +437,14 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
+      <c r="A2">
+        <v>137</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
+      <c r="C2">
+        <v>137</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -454,7 +454,7 @@
       </c>
       <c r="F2"/>
       <c r="G2">
-        <v>11</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/client/assets/file/export/inventory.xlsx
+++ b/client/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -37,15 +37,6 @@
   </si>
   <si>
     <t>Quantity</t>
-  </si>
-  <si>
-    <t>zyu1000</t>
-  </si>
-  <si>
-    <t>HuaLongUSA Main</t>
-  </si>
-  <si>
-    <t>A1000</t>
   </si>
 </sst>
 </file>
@@ -396,7 +387,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -405,9 +396,9 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="6.28418" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="4.855957" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="4.855957" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12.568359" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
@@ -434,27 +425,6 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>137</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>137</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2">
-        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/client/assets/file/export/inventory.xlsx
+++ b/client/assets/file/export/inventory.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -37,6 +37,33 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>BHL001</t>
+  </si>
+  <si>
+    <t>HuaLongUSA Main</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>Trampoline Green</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Chandelier Snak</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>粗三环</t>
   </si>
 </sst>
 </file>
@@ -387,7 +414,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -395,10 +422,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.28418" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="4.855957" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="4.855957" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12.568359" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
@@ -425,6 +452,153 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>742271417056</v>
+      </c>
+      <c r="C3">
+        <v>742271417056</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>742271416370</v>
+      </c>
+      <c r="C4">
+        <v>742271416370</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>742271416356</v>
+      </c>
+      <c r="C7">
+        <v>742271416356</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>742271417056</v>
+      </c>
+      <c r="C8">
+        <v>742271417056</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/client/assets/file/export/inventory.xlsx
+++ b/client/assets/file/export/inventory.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
-  <si>
-    <t>Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+  <si>
+    <t>名称</t>
   </si>
   <si>
     <t>UPC</t>
@@ -27,43 +27,16 @@
     <t>SKU</t>
   </si>
   <si>
-    <t>Warehouse</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Batch</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>BHL001</t>
-  </si>
-  <si>
-    <t>HuaLongUSA Main</t>
-  </si>
-  <si>
-    <t>A0</t>
-  </si>
-  <si>
-    <t>Trampoline Green</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>Chandelier Snak</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>粗三环</t>
+    <t>仓库</t>
+  </si>
+  <si>
+    <t>库位</t>
+  </si>
+  <si>
+    <t>批次</t>
+  </si>
+  <si>
+    <t>数量</t>
   </si>
 </sst>
 </file>
@@ -414,7 +387,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,13 +395,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="18.709717" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="3.570557" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="3.570557" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="3.570557" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="3.570557" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="3.570557" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -452,153 +425,6 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>742271417056</v>
-      </c>
-      <c r="C3">
-        <v>742271417056</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>742271416370</v>
-      </c>
-      <c r="C4">
-        <v>742271416370</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>742271416356</v>
-      </c>
-      <c r="C7">
-        <v>742271416356</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>742271417056</v>
-      </c>
-      <c r="C8">
-        <v>742271417056</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8"/>
-      <c r="G8">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
